--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AC85CC-5078-42E6-815B-685DF6D52F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962938EE-58B5-43C2-9179-682C92DD8DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3803" yWindow="2415" windowWidth="21600" windowHeight="11423" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
   <si>
     <t>J</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Pierre Henry</t>
+  </si>
+  <si>
+    <t>Ariana</t>
   </si>
 </sst>
 </file>
@@ -356,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E40" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E41" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F286D0B-9B56-4DEE-B370-0BB8893FEA64}" name="Guest1"/>
     <tableColumn id="2" xr3:uid="{B78729A2-8D55-4557-AD5E-0256586F2C0C}" name="Guest2"/>
@@ -686,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,30 +774,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -822,7 +822,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -831,15 +834,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -848,15 +848,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -882,15 +882,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -899,15 +899,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1001,15 +1001,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -1057,27 +1057,27 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -1091,24 +1091,24 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -1122,30 +1122,33 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1153,24 +1156,21 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -1179,15 +1179,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1196,15 +1196,15 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1213,18 +1213,21 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1232,16 +1235,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -1261,29 +1261,32 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -1297,16 +1300,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1326,15 +1326,15 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -1343,23 +1343,40 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
         <v>1</v>
       </c>
     </row>

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962938EE-58B5-43C2-9179-682C92DD8DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD6CCC5-D1CB-4554-A76B-711D54E75208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>J</t>
   </si>
@@ -113,178 +113,175 @@
     <t>Oluwademilade Oduwole</t>
   </si>
   <si>
-    <t>Leon Gulston</t>
+    <t>Emmanuel Ekpiken</t>
+  </si>
+  <si>
+    <t>Ashleigh Carey</t>
+  </si>
+  <si>
+    <t>Javier Aquilar Martin</t>
+  </si>
+  <si>
+    <t>Laura Perez</t>
+  </si>
+  <si>
+    <t>Sirran Elves</t>
+  </si>
+  <si>
+    <t>Olga Baikova</t>
+  </si>
+  <si>
+    <t>Thalia Padilla</t>
+  </si>
+  <si>
+    <t>Pedro Brinceño Salazar</t>
+  </si>
+  <si>
+    <t>Debora Lima</t>
+  </si>
+  <si>
+    <t>Beatrice Muzi</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Alberto Fernandez Vadillo</t>
+  </si>
+  <si>
+    <t>Jolie Saulite</t>
+  </si>
+  <si>
+    <t>Angel Peinado</t>
+  </si>
+  <si>
+    <t>Leandro Charanga</t>
+  </si>
+  <si>
+    <t>Aurora Maiorano</t>
+  </si>
+  <si>
+    <t>Andre L Maingot</t>
+  </si>
+  <si>
+    <t>Bishwas Hamal</t>
+  </si>
+  <si>
+    <t>Beth Miriam</t>
+  </si>
+  <si>
+    <t>Bryan Wong</t>
+  </si>
+  <si>
+    <t>Camy Marina</t>
+  </si>
+  <si>
+    <t>Pebbles</t>
+  </si>
+  <si>
+    <t>Carlos Paz</t>
+  </si>
+  <si>
+    <t>Oriana</t>
+  </si>
+  <si>
+    <t>Dani K</t>
+  </si>
+  <si>
+    <t>Elijah Tella</t>
+  </si>
+  <si>
+    <t>Daniel Carbonero</t>
+  </si>
+  <si>
+    <t>Ayesha Chan</t>
+  </si>
+  <si>
+    <t>Daniel Chong</t>
+  </si>
+  <si>
+    <t>Gabriel Bravo Rivera</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Diego Garcia</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Giovana Brandi</t>
+  </si>
+  <si>
+    <t>Rafael Nardon</t>
+  </si>
+  <si>
+    <t>Jessica Kasfiki</t>
+  </si>
+  <si>
+    <t>Leon Walber</t>
+  </si>
+  <si>
+    <t>Katerina Sergeeva</t>
+  </si>
+  <si>
+    <t>Laura Ann Williams</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Marky Marc</t>
+  </si>
+  <si>
+    <t>Trevor Anthony</t>
+  </si>
+  <si>
+    <t>Ramiro Zapata</t>
+  </si>
+  <si>
+    <t>Mihaela</t>
+  </si>
+  <si>
+    <t>Rola</t>
+  </si>
+  <si>
+    <t>Stephanie Lucero</t>
+  </si>
+  <si>
+    <t>Flame Luconi</t>
+  </si>
+  <si>
+    <t>Pierre Henry</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>James re</t>
   </si>
   <si>
     <t>Christopher Webster</t>
   </si>
   <si>
-    <t>Emmanuel Ekpiken</t>
-  </si>
-  <si>
-    <t>Joel Cheung</t>
-  </si>
-  <si>
-    <t>Ashleigh Carey</t>
-  </si>
-  <si>
-    <t>Javier Aquilar Martin</t>
-  </si>
-  <si>
-    <t>Laura Perez</t>
-  </si>
-  <si>
-    <t>Sirran Elves</t>
-  </si>
-  <si>
-    <t>Olga Baikova</t>
-  </si>
-  <si>
-    <t>Thalia Padilla</t>
-  </si>
-  <si>
-    <t>Pedro Brinceño Salazar</t>
-  </si>
-  <si>
-    <t>Lola Gill</t>
-  </si>
-  <si>
-    <t>Kevin Gill</t>
-  </si>
-  <si>
-    <t>Debora Lima</t>
-  </si>
-  <si>
-    <t>Beatrice Muzi</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>Alberto Fernandez Vadillo</t>
-  </si>
-  <si>
-    <t>Jolie Saulite</t>
-  </si>
-  <si>
-    <t>Angel Peinado</t>
-  </si>
-  <si>
-    <t>Leandro Charanga</t>
-  </si>
-  <si>
-    <t>Aurora Maiorano</t>
-  </si>
-  <si>
-    <t>Andre L Maingot</t>
-  </si>
-  <si>
-    <t>Bishwas Hamal</t>
-  </si>
-  <si>
-    <t>Beth Miriam</t>
-  </si>
-  <si>
-    <t>Bryan Wong</t>
-  </si>
-  <si>
-    <t>Camy Marina</t>
-  </si>
-  <si>
-    <t>Pebbles</t>
-  </si>
-  <si>
-    <t>Carlos Paz</t>
-  </si>
-  <si>
-    <t>Oriana</t>
-  </si>
-  <si>
-    <t>Dani K</t>
-  </si>
-  <si>
-    <t>Elijah Tella</t>
-  </si>
-  <si>
-    <t>Daniel Carbonero</t>
-  </si>
-  <si>
-    <t>Ayesha Chan</t>
-  </si>
-  <si>
-    <t>Daniel Chong</t>
-  </si>
-  <si>
-    <t>Gabriel Bravo Rivera</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Ola</t>
-  </si>
-  <si>
-    <t>Diego Garcia</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Giovana Brandi</t>
-  </si>
-  <si>
-    <t>Rafael Nardon</t>
-  </si>
-  <si>
-    <t>Jessica Kasfiki</t>
-  </si>
-  <si>
-    <t>Leon Walber</t>
-  </si>
-  <si>
-    <t>Katerina Sergeeva</t>
-  </si>
-  <si>
-    <t>Laura Ann Williams</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Marky Marc</t>
-  </si>
-  <si>
-    <t>Trevor Anthony</t>
-  </si>
-  <si>
-    <t>Ramiro Zapata</t>
-  </si>
-  <si>
-    <t>Mihaela</t>
-  </si>
-  <si>
-    <t>Rola</t>
-  </si>
-  <si>
-    <t>Stephanie Lucero</t>
-  </si>
-  <si>
-    <t>Flame Luconi</t>
-  </si>
-  <si>
-    <t>Pierre Henry</t>
-  </si>
-  <si>
-    <t>Ariana</t>
+    <t>Oi Yean Wong</t>
+  </si>
+  <si>
+    <t>Su Jin Han</t>
   </si>
 </sst>
 </file>
@@ -359,8 +356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E41" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E42" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F286D0B-9B56-4DEE-B370-0BB8893FEA64}" name="Guest1"/>
     <tableColumn id="2" xr3:uid="{B78729A2-8D55-4557-AD5E-0256586F2C0C}" name="Guest2"/>
@@ -689,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -718,15 +715,15 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -757,10 +754,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -774,7 +771,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -788,10 +785,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -805,10 +802,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -822,10 +819,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -839,7 +836,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -853,10 +850,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -870,10 +867,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -904,10 +901,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -921,10 +918,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -938,16 +935,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -955,10 +952,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -972,10 +969,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -989,10 +986,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1040,10 +1037,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -1057,33 +1054,33 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1091,24 +1088,24 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -1122,33 +1119,30 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1156,21 +1150,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -1179,21 +1176,18 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1201,10 +1195,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1213,15 +1207,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1230,18 +1224,21 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1249,16 +1246,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1266,10 +1260,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1278,35 +1272,38 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1314,10 +1311,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
         <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1331,10 +1328,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -1350,9 +1347,6 @@
       <c r="A40" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1360,15 +1354,12 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -1377,7 +1368,21 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD6CCC5-D1CB-4554-A76B-711D54E75208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9C2479-A8F5-4EE2-B338-A3408A10ADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>J</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Leandro Charanga</t>
   </si>
   <si>
-    <t>Aurora Maiorano</t>
-  </si>
-  <si>
     <t>Andre L Maingot</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
   </si>
   <si>
     <t>Beth Miriam</t>
-  </si>
-  <si>
-    <t>Bryan Wong</t>
   </si>
   <si>
     <t>Camy Marina</t>
@@ -356,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E42" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E41" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F286D0B-9B56-4DEE-B370-0BB8893FEA64}" name="Guest1"/>
     <tableColumn id="2" xr3:uid="{B78729A2-8D55-4557-AD5E-0256586F2C0C}" name="Guest2"/>
@@ -686,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +765,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -804,9 +798,6 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -814,15 +805,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -836,6 +827,9 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -845,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -867,10 +861,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -879,15 +873,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -896,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -924,10 +918,10 @@
         <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -935,16 +929,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -952,10 +946,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -986,10 +980,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -998,15 +992,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1020,10 +1014,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -1037,19 +1031,19 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1063,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1073,22 +1067,22 @@
       <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -1102,33 +1096,30 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1136,21 +1127,24 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1159,21 +1153,18 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1181,13 +1172,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1195,10 +1189,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1207,38 +1201,35 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1246,13 +1237,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1260,10 +1254,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1272,15 +1266,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -1289,15 +1283,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -1311,10 +1305,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1323,15 +1317,12 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -1345,7 +1336,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -1359,7 +1350,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -1368,20 +1359,6 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
         <v>0</v>
       </c>
     </row>

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9C2479-A8F5-4EE2-B338-A3408A10ADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697CFDA8-A9B8-4A3D-912B-DF89F0425800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>J</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Su Jin Han</t>
+  </si>
+  <si>
+    <t>Bryan Wong</t>
   </si>
 </sst>
 </file>
@@ -350,8 +353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E41" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E42" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F286D0B-9B56-4DEE-B370-0BB8893FEA64}" name="Guest1"/>
     <tableColumn id="2" xr3:uid="{B78729A2-8D55-4557-AD5E-0256586F2C0C}" name="Guest2"/>
@@ -682,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -798,6 +801,9 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -805,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697CFDA8-A9B8-4A3D-912B-DF89F0425800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E9887A-740E-4609-AA22-EC4DFCC5C0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>J</t>
   </si>
@@ -89,196 +89,196 @@
     <t>Adam Foulston</t>
   </si>
   <si>
-    <t>Sofia Smith-Londoño</t>
+    <t>Eleanor Jane Tress</t>
+  </si>
+  <si>
+    <t>Silvia Di Stasio</t>
+  </si>
+  <si>
+    <t>Eliska Prokesova</t>
+  </si>
+  <si>
+    <t>Heung Kwan Hui</t>
+  </si>
+  <si>
+    <t>Ámer khudari</t>
+  </si>
+  <si>
+    <t>Oluwademilade Oduwole</t>
+  </si>
+  <si>
+    <t>Emmanuel Ekpiken</t>
+  </si>
+  <si>
+    <t>Ashleigh Carey</t>
+  </si>
+  <si>
+    <t>Javier Aquilar Martin</t>
+  </si>
+  <si>
+    <t>Laura Perez</t>
+  </si>
+  <si>
+    <t>Sirran Elves</t>
+  </si>
+  <si>
+    <t>Olga Baikova</t>
+  </si>
+  <si>
+    <t>Thalia Padilla</t>
+  </si>
+  <si>
+    <t>Pedro Brinceño Salazar</t>
+  </si>
+  <si>
+    <t>Debora Lima</t>
+  </si>
+  <si>
+    <t>Beatrice Muzi</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Alberto Fernandez Vadillo</t>
+  </si>
+  <si>
+    <t>Jolie Saulite</t>
+  </si>
+  <si>
+    <t>Angel Peinado</t>
+  </si>
+  <si>
+    <t>Leandro Charanga</t>
+  </si>
+  <si>
+    <t>Andre L Maingot</t>
+  </si>
+  <si>
+    <t>Bishwas Hamal</t>
+  </si>
+  <si>
+    <t>Beth Miriam</t>
+  </si>
+  <si>
+    <t>Camy Marina</t>
+  </si>
+  <si>
+    <t>Pebbles</t>
+  </si>
+  <si>
+    <t>Carlos Paz</t>
+  </si>
+  <si>
+    <t>Oriana</t>
+  </si>
+  <si>
+    <t>Dani K</t>
+  </si>
+  <si>
+    <t>Elijah Tella</t>
+  </si>
+  <si>
+    <t>Daniel Carbonero</t>
+  </si>
+  <si>
+    <t>Ayesha Chan</t>
+  </si>
+  <si>
+    <t>Daniel Chong</t>
+  </si>
+  <si>
+    <t>Gabriel Bravo Rivera</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Diego Garcia</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Giovana Brandi</t>
+  </si>
+  <si>
+    <t>Rafael Nardon</t>
+  </si>
+  <si>
+    <t>Jessica Kasfiki</t>
+  </si>
+  <si>
+    <t>Leon Walber</t>
+  </si>
+  <si>
+    <t>Katerina Sergeeva</t>
+  </si>
+  <si>
+    <t>Laura Ann Williams</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Marky Marc</t>
+  </si>
+  <si>
+    <t>Trevor Anthony</t>
+  </si>
+  <si>
+    <t>Ramiro Zapata</t>
+  </si>
+  <si>
+    <t>Mihaela</t>
+  </si>
+  <si>
+    <t>Rola</t>
+  </si>
+  <si>
+    <t>Stephanie Lucero</t>
+  </si>
+  <si>
+    <t>Flame Luconi</t>
+  </si>
+  <si>
+    <t>Pierre Henry</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>James re</t>
+  </si>
+  <si>
+    <t>Christopher Webster</t>
+  </si>
+  <si>
+    <t>Su Jin Han</t>
+  </si>
+  <si>
+    <t>Bryan Wong</t>
+  </si>
+  <si>
+    <t>Gabor Takacs</t>
   </si>
   <si>
     <t>Irene Salva Lopez</t>
   </si>
   <si>
-    <t>Eleanor Jane Tress</t>
-  </si>
-  <si>
-    <t>Silvia Di Stasio</t>
-  </si>
-  <si>
-    <t>Eliska Prokesova</t>
-  </si>
-  <si>
-    <t>Heung Kwan Hui</t>
-  </si>
-  <si>
-    <t>Ámer khudari</t>
-  </si>
-  <si>
-    <t>Oluwademilade Oduwole</t>
-  </si>
-  <si>
-    <t>Emmanuel Ekpiken</t>
-  </si>
-  <si>
-    <t>Ashleigh Carey</t>
-  </si>
-  <si>
-    <t>Javier Aquilar Martin</t>
-  </si>
-  <si>
-    <t>Laura Perez</t>
-  </si>
-  <si>
-    <t>Sirran Elves</t>
-  </si>
-  <si>
-    <t>Olga Baikova</t>
-  </si>
-  <si>
-    <t>Thalia Padilla</t>
-  </si>
-  <si>
-    <t>Pedro Brinceño Salazar</t>
-  </si>
-  <si>
-    <t>Debora Lima</t>
-  </si>
-  <si>
-    <t>Beatrice Muzi</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>Alberto Fernandez Vadillo</t>
-  </si>
-  <si>
-    <t>Jolie Saulite</t>
-  </si>
-  <si>
-    <t>Angel Peinado</t>
-  </si>
-  <si>
-    <t>Leandro Charanga</t>
-  </si>
-  <si>
-    <t>Andre L Maingot</t>
-  </si>
-  <si>
-    <t>Bishwas Hamal</t>
-  </si>
-  <si>
-    <t>Beth Miriam</t>
-  </si>
-  <si>
-    <t>Camy Marina</t>
-  </si>
-  <si>
-    <t>Pebbles</t>
-  </si>
-  <si>
-    <t>Carlos Paz</t>
-  </si>
-  <si>
-    <t>Oriana</t>
-  </si>
-  <si>
-    <t>Dani K</t>
-  </si>
-  <si>
-    <t>Elijah Tella</t>
-  </si>
-  <si>
-    <t>Daniel Carbonero</t>
-  </si>
-  <si>
-    <t>Ayesha Chan</t>
-  </si>
-  <si>
-    <t>Daniel Chong</t>
-  </si>
-  <si>
-    <t>Gabriel Bravo Rivera</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Ola</t>
-  </si>
-  <si>
-    <t>Diego Garcia</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Giovana Brandi</t>
-  </si>
-  <si>
-    <t>Rafael Nardon</t>
-  </si>
-  <si>
-    <t>Jessica Kasfiki</t>
-  </si>
-  <si>
-    <t>Leon Walber</t>
-  </si>
-  <si>
-    <t>Katerina Sergeeva</t>
-  </si>
-  <si>
-    <t>Laura Ann Williams</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Marky Marc</t>
-  </si>
-  <si>
-    <t>Trevor Anthony</t>
-  </si>
-  <si>
-    <t>Ramiro Zapata</t>
-  </si>
-  <si>
-    <t>Mihaela</t>
-  </si>
-  <si>
-    <t>Rola</t>
-  </si>
-  <si>
-    <t>Stephanie Lucero</t>
-  </si>
-  <si>
-    <t>Flame Luconi</t>
-  </si>
-  <si>
-    <t>Pierre Henry</t>
-  </si>
-  <si>
-    <t>Ariana</t>
-  </si>
-  <si>
-    <t>James re</t>
-  </si>
-  <si>
-    <t>Christopher Webster</t>
-  </si>
-  <si>
-    <t>Oi Yean Wong</t>
-  </si>
-  <si>
-    <t>Su Jin Han</t>
-  </si>
-  <si>
-    <t>Bryan Wong</t>
+    <t>Sam Spencer</t>
   </si>
 </sst>
 </file>
@@ -353,8 +353,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E42" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E41" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition ref="A2:A40"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F286D0B-9B56-4DEE-B370-0BB8893FEA64}" name="Guest1"/>
     <tableColumn id="2" xr3:uid="{B78729A2-8D55-4557-AD5E-0256586F2C0C}" name="Guest2"/>
@@ -683,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -712,15 +715,15 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -734,10 +737,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -754,7 +757,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -768,7 +771,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -777,35 +783,32 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
@@ -816,10 +819,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -833,10 +836,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -850,10 +853,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -884,10 +887,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -896,15 +899,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -918,16 +921,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -935,16 +938,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -952,10 +955,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -969,10 +972,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -986,10 +989,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -998,15 +1001,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1020,10 +1023,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -1037,126 +1040,129 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1164,24 +1170,27 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1195,10 +1204,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1207,21 +1216,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1229,30 +1235,33 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1260,27 +1269,21 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -1289,15 +1292,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -1311,10 +1314,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1323,12 +1326,12 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -1342,7 +1345,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -1351,21 +1357,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E9887A-740E-4609-AA22-EC4DFCC5C0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C389DA-BB3A-402A-8CA6-D2432326BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>J</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Pierre Henry</t>
-  </si>
-  <si>
-    <t>Ariana</t>
   </si>
   <si>
     <t>James re</t>
@@ -353,10 +350,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E41" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
-    <sortCondition ref="A2:A40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E40" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F286D0B-9B56-4DEE-B370-0BB8893FEA64}" name="Guest1"/>
@@ -686,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -757,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -788,27 +785,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -865,15 +865,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -899,15 +899,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1001,15 +1001,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -1057,27 +1057,27 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -1091,24 +1091,24 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -1122,33 +1122,30 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1156,24 +1153,27 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -1182,15 +1182,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1204,16 +1204,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1221,41 +1218,41 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -1269,21 +1266,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -1292,15 +1292,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -1314,10 +1314,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1326,12 +1323,15 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -1340,23 +1340,6 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
         <v>1</v>
       </c>
     </row>

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C389DA-BB3A-402A-8CA6-D2432326BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE5A4E2-5221-4F0B-A0B1-91C9B2D7D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>Carla</t>
   </si>
   <si>
-    <t>Marky Marc</t>
-  </si>
-  <si>
     <t>Trevor Anthony</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>Sam Spencer</t>
+  </si>
+  <si>
+    <t>Manuel Daquilema</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1026,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1199,12 +1199,12 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>62</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1349,4 +1349,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{dd2e4901-b5ad-42ae-9e9d-f456e52148af}" enabled="1" method="Privileged" siteId="{3b07dc1f-22e7-4be1-ac66-a88bf3550222}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE5A4E2-5221-4F0B-A0B1-91C9B2D7D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3513E3D1-3176-432D-B8E6-E5430C920AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
     <t>J</t>
   </si>
@@ -276,6 +276,21 @@
   </si>
   <si>
     <t>Manuel Daquilema</t>
+  </si>
+  <si>
+    <t>Ethan Hale</t>
+  </si>
+  <si>
+    <t>Laura Stefanescu</t>
+  </si>
+  <si>
+    <t>Elina Fjodorova</t>
+  </si>
+  <si>
+    <t>Valdenize Ferreira de Lima</t>
+  </si>
+  <si>
+    <t>Dimana Karakirova</t>
   </si>
 </sst>
 </file>
@@ -350,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E40" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E41" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -683,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1093,6 +1108,9 @@
       <c r="A24" t="s">
         <v>60</v>
       </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -1268,6 +1286,9 @@
       <c r="A35" t="s">
         <v>78</v>
       </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1316,6 +1337,9 @@
       <c r="A38" t="s">
         <v>74</v>
       </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1341,6 +1365,23 @@
       </c>
       <c r="E39" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3513E3D1-3176-432D-B8E6-E5430C920AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFD9702-A42E-408A-A440-011D6AC8CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>J</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Dimana Karakirova</t>
+  </si>
+  <si>
+    <t>Esme Roberts</t>
   </si>
 </sst>
 </file>
@@ -700,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1016,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1159,11 +1162,14 @@
       <c r="A27" t="s">
         <v>61</v>
       </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFD9702-A42E-408A-A440-011D6AC8CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DD4825-B634-46DC-8DA0-89F09F9BC96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
     <t>J</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>Christopher Webster</t>
-  </si>
-  <si>
-    <t>Su Jin Han</t>
   </si>
   <si>
     <t>Bryan Wong</t>
@@ -703,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -772,7 +769,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -891,7 +888,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1112,7 +1109,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -1163,7 +1160,7 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -1180,7 +1177,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1214,7 +1211,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1290,10 +1287,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1341,10 +1338,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1375,10 +1369,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>

--- a/sql/match.xlsx
+++ b/sql/match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DD4825-B634-46DC-8DA0-89F09F9BC96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2EEED5-46F6-4159-A772-6FA62E47F262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{179502E4-8792-4238-80B4-7832BD261A10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>J</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Esme Roberts</t>
+  </si>
+  <si>
+    <t>Margarita Dobrowolska</t>
+  </si>
+  <si>
+    <t>James Shillcock</t>
   </si>
 </sst>
 </file>
@@ -365,8 +371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E41" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E42" xr:uid="{192C214A-26BB-4E3D-9E97-98BE52C1D6FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -698,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5A6B0-C99C-495A-B2DC-FB8D9439EA05}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1340,6 +1346,9 @@
       <c r="A38" t="s">
         <v>80</v>
       </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1381,6 +1390,20 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
         <v>0</v>
       </c>
     </row>
